--- a/meta/validators/max.xlsx
+++ b/meta/validators/max.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVeeValidate/meta/validators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB9C55-1419-7046-BD83-F263BBBD5C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F4FDE-8133-524A-8E86-B0AFA22043BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="460" windowWidth="25200" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>パッケージ</t>
   </si>
@@ -494,6 +494,17 @@
     <rPh sb="8" eb="10">
       <t xml:space="preserve">シテイ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>必須扱いとする</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒッスアツカイト </t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>/* このフラグをオンにすると、Schemeクラスのフィールドとして computesRequired: boolean = true が定義される。 */</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1401,6 +1412,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,39 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1872,10 +1883,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1967,10 +1978,10 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1983,10 +1994,10 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="65" t="s">
         <v>35</v>
       </c>
@@ -2003,11 +2014,11 @@
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
       <c r="H11" s="25"/>
@@ -2064,162 +2075,158 @@
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1">
       <c r="A15" s="52" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B15" s="53"/>
-      <c r="C15" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15"/>
+      <c r="C15" s="54"/>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" s="56"/>
+      <c r="G15"/>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1">
-      <c r="A16" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="110"/>
+      <c r="A16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="53"/>
       <c r="C16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" s="56"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:12" s="28" customFormat="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" s="23" customFormat="1">
-      <c r="A18" s="21" t="s">
+    <row r="17" spans="1:12" s="23" customFormat="1">
+      <c r="A17" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="56"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:12" s="28" customFormat="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" s="23" customFormat="1">
+      <c r="A19" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="80"/>
-    </row>
-    <row r="19" spans="1:12" s="23" customFormat="1">
-      <c r="A19" s="81" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" s="23" customFormat="1">
+      <c r="A20" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-    </row>
-    <row r="20" spans="1:12" s="23" customFormat="1">
-      <c r="A20" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
     </row>
     <row r="21" spans="1:12" s="23" customFormat="1">
       <c r="A21" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+    </row>
+    <row r="22" spans="1:12" s="23" customFormat="1">
+      <c r="A22" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
-    </row>
-    <row r="22" spans="1:12" s="23" customFormat="1">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="21" t="s">
+      <c r="B22" s="86"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="1:12" s="23" customFormat="1">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="35" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="38" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B25" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="42">
-        <v>1</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
       <c r="H26" s="25"/>
@@ -2229,11 +2236,15 @@
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="43"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+      <c r="A27" s="42">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
       <c r="H27" s="25"/>
@@ -2243,11 +2254,11 @@
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="64"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="58"/>
       <c r="G28" s="58"/>
       <c r="H28" s="25"/>
@@ -2271,76 +2282,69 @@
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="35" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="38" t="s">
+      <c r="H31" s="35"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B32" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="66" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="42">
-        <v>1</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="42">
-        <f>A32+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="69" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="68" t="s">
+        <v>45</v>
       </c>
       <c r="G33" s="58"/>
       <c r="H33" s="25"/>
@@ -2350,12 +2354,19 @@
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="43"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="67"/>
+      <c r="A34" s="42">
+        <f>A33+1</f>
+        <v>2</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="G34" s="58"/>
       <c r="H34" s="25"/>
       <c r="I34" s="27"/>
@@ -2364,12 +2375,12 @@
       <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="64"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="58"/>
       <c r="H35" s="25"/>
       <c r="I35" s="27"/>
@@ -2378,144 +2389,144 @@
       <c r="L35" s="26"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="3" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="15"/>
-    </row>
-    <row r="38" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A38" s="112" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A39" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="112" t="s">
+      <c r="B39" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="111" t="s">
+      <c r="C39" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="111" t="s">
+      <c r="D39" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="111" t="s">
+      <c r="E39" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="113" t="s">
+      <c r="F39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="113" t="s">
+      <c r="G39" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="111" t="s">
+      <c r="H39" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="111"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="15"/>
-    </row>
-    <row r="40" spans="1:12" ht="32" customHeight="1">
-      <c r="A40" s="19">
+      <c r="I39" s="102"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" ht="32" customHeight="1">
+      <c r="A41" s="19">
         <v>1</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B41" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C41" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74">
+      <c r="D41" s="74"/>
+      <c r="E41" s="74">
         <v>255</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F41" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="75"/>
-      <c r="H40" s="101" t="s">
+      <c r="G41" s="75"/>
+      <c r="H41" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="15"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="19"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="97"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="19"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="74"/>
       <c r="E42" s="74"/>
       <c r="F42" s="74"/>
       <c r="G42" s="75"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="97"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="108"/>
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="19"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="74"/>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
       <c r="G43" s="75"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="97"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12">
@@ -2526,78 +2537,92 @@
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
       <c r="G44" s="75"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="97"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="108"/>
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="19"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="97"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="108"/>
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="100"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="108"/>
       <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="77"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="H45:K45"/>
     <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H47:K47"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E62:G62" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E63:G63" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{78FE03A8-B82F-DD42-A5B2-F5AED31EB8E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{78FE03A8-B82F-DD42-A5B2-F5AED31EB8E5}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{0933AF92-3C0C-2F47-AF58-F84946F39270}">
       <formula1>componentKind</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:G46" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:G47" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>
